--- a/Project Outputs for UWB_board/BOM/Bill of Materials-UWB_board.xlsx
+++ b/Project Outputs for UWB_board/BOM/Bill of Materials-UWB_board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Projects\UWB_board\Project Outputs for UWB_board\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F6D1824D-3FEB-439C-B19D-C75887643DBE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{552B0229-0FC3-4AC9-A7E6-A7E9EB41A5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5190" yWindow="3645" windowWidth="21300" windowHeight="17235" xr2:uid="{F8D1EE97-0820-42CC-BDD8-862CE6AB5107}"/>
+    <workbookView xWindow="14145" yWindow="3735" windowWidth="30075" windowHeight="15345" xr2:uid="{75293BC7-681D-47B2-8889-6EED14AAD5F6}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-UWB_board" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="177" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
   <si>
     <t>Comment</t>
   </si>
@@ -83,7 +83,7 @@
     <t>100nF</t>
   </si>
   <si>
-    <t>C2, C3, C4, C5, C7, C11, C12, C18, C19</t>
+    <t>C2, C3, C4, C5, C7, C11, C12, C22, C23, C24, C25, C26</t>
   </si>
   <si>
     <t>CC0603KRX7R9BB104</t>
@@ -98,7 +98,7 @@
     <t>1uF 50V X5R ±10% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
   </si>
   <si>
-    <t>C6, C13, C14, C15, C16</t>
+    <t>C6, C13, C14, C15, C16, C21</t>
   </si>
   <si>
     <t>CL10A105KB8NNNC</t>
@@ -128,7 +128,7 @@
     <t>2.2uF 16V X5R ±10% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
   </si>
   <si>
-    <t>C10, C17</t>
+    <t>C10</t>
   </si>
   <si>
     <t>CL10A225KO8NNNC</t>
@@ -137,21 +137,6 @@
     <t>C23630</t>
   </si>
   <si>
-    <t>4.7uF</t>
-  </si>
-  <si>
-    <t>4.7uF 50V X7R ±10% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
-  </si>
-  <si>
-    <t>C20</t>
-  </si>
-  <si>
-    <t>CL10A475KO8NNNC</t>
-  </si>
-  <si>
-    <t>C19666</t>
-  </si>
-  <si>
     <t>KT-0603W</t>
   </si>
   <si>
@@ -368,7 +353,7 @@
     <t>4.7kΩ -55℃~+155℃ 100mW 75V Thick Film Resistor ±1% ±100ppm/℃ 0603 Chip Resistor - Surface Mount ROHS</t>
   </si>
   <si>
-    <t>R16, R17</t>
+    <t>R18, R19</t>
   </si>
   <si>
     <t>0603WAF4701T5E</t>
@@ -392,10 +377,7 @@
     <t>C720477</t>
   </si>
   <si>
-    <t>STM32U073CCU6</t>
-  </si>
-  <si>
-    <t>Ultra-low-power Arm Cortex-M0+ MCU with 256 Kbytes of Flash memory, LCD, USB, 56 MHz CPU</t>
+    <t>STM32L433CCT</t>
   </si>
   <si>
     <t>U1</t>
@@ -404,9 +386,6 @@
     <t>LQFP50</t>
   </si>
   <si>
-    <t>C22455185</t>
-  </si>
-  <si>
     <t>ESD</t>
   </si>
   <si>
@@ -443,49 +422,28 @@
     <t>C5446</t>
   </si>
   <si>
+    <t>DWM3000</t>
+  </si>
+  <si>
+    <t>3.5 - 6.5 GHz Ultra-Wideband (UWB) Transceiver Module</t>
+  </si>
+  <si>
+    <t>U5</t>
+  </si>
+  <si>
     <t>DWM1000</t>
   </si>
   <si>
-    <t>3.5 - 6.5 GHz Ultra-Wideband (UWB) Transceiver Module</t>
-  </si>
-  <si>
-    <t>U5</t>
-  </si>
-  <si>
-    <t>Compass</t>
-  </si>
-  <si>
-    <t>-40℃~+85℃ 16bit 2.5V~3.6V 6uA I2C ±3.2mT ±3.2mT WLCSP-4(0.8x0.8) 3D Magnetic Sensors ROHS</t>
-  </si>
-  <si>
-    <t>U6</t>
-  </si>
-  <si>
-    <t>BGA4C40P2X2_79X79X58</t>
-  </si>
-  <si>
-    <t>QMC6309</t>
-  </si>
-  <si>
-    <t>C5439871</t>
-  </si>
-  <si>
-    <t>Accelerometer</t>
-  </si>
-  <si>
-    <t>-40℃~+85℃ 1.8uA 1.95V~3.6V 14bit Accelerometer I2C X,Y,Z ±8g QFN-16(3x3) Accelerometers ROHS</t>
-  </si>
-  <si>
-    <t>U7</t>
-  </si>
-  <si>
-    <t>QFN50P300X300X100-16N</t>
-  </si>
-  <si>
-    <t>MMA8451QR1</t>
-  </si>
-  <si>
-    <t>C118083</t>
+    <t>LSM6DSVTR</t>
+  </si>
+  <si>
+    <t>6-axis IMU with embedded sensor fusion, I3C, OIS/EIS for smart applications</t>
+  </si>
+  <si>
+    <t>U8</t>
+  </si>
+  <si>
+    <t>LGA14-L_2p59x3P1x0P5_STM</t>
   </si>
   <si>
     <t>Q13FC13500004</t>
@@ -897,8 +855,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{92E4271B-B08A-48E5-A6EC-CC98F2B7E770}">
-  <dimension ref="A1:G30"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB06B4E-843D-4616-81CF-A56F0BD355F2}">
+  <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -971,7 +929,7 @@
         <v>15</v>
       </c>
       <c r="F3" s="1">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="G3" s="2" t="s">
         <v>16</v>
@@ -994,7 +952,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>21</v>
@@ -1040,7 +998,7 @@
         <v>30</v>
       </c>
       <c r="F6" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G6" s="2" t="s">
         <v>31</v>
@@ -1057,10 +1015,10 @@
         <v>34</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F7" s="1">
         <v>1</v>
@@ -1080,7 +1038,7 @@
         <v>39</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="E8" s="2" t="s">
         <v>37</v>
@@ -1089,75 +1047,73 @@
         <v>1</v>
       </c>
       <c r="G8" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B9" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="B9" s="2" t="s">
+      <c r="C9" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="C9" s="2" t="s">
+      <c r="D9" s="2" t="s">
         <v>44</v>
       </c>
-      <c r="D9" s="2" t="s">
-        <v>40</v>
-      </c>
       <c r="E9" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F9" s="1">
-        <v>1</v>
-      </c>
-      <c r="G9" s="2" t="s">
-        <v>45</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="G9" s="1"/>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B10" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="B10" s="2" t="s">
+      <c r="C10" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="2" t="s">
+      <c r="D10" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="E10" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>46</v>
-      </c>
       <c r="F10" s="1">
-        <v>2</v>
-      </c>
-      <c r="G10" s="1"/>
+        <v>1</v>
+      </c>
+      <c r="G10" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="E11" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F11" s="1">
         <v>1</v>
       </c>
-      <c r="G11" s="2" t="s">
-        <v>55</v>
-      </c>
+      <c r="G11" s="1"/>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
@@ -1199,20 +1155,22 @@
       <c r="F13" s="1">
         <v>1</v>
       </c>
-      <c r="G13" s="1"/>
+      <c r="G13" s="2" t="s">
+        <v>66</v>
+      </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="2" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E14" s="2" t="s">
         <v>70</v>
@@ -1235,13 +1193,13 @@
         <v>74</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E15" s="2" t="s">
         <v>75</v>
       </c>
       <c r="F15" s="1">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="G15" s="2" t="s">
         <v>76</v>
@@ -1258,13 +1216,13 @@
         <v>79</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>80</v>
       </c>
       <c r="F16" s="1">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G16" s="2" t="s">
         <v>81</v>
@@ -1281,13 +1239,13 @@
         <v>84</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E17" s="2" t="s">
         <v>85</v>
       </c>
       <c r="F17" s="1">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="G17" s="2" t="s">
         <v>86</v>
@@ -1304,7 +1262,7 @@
         <v>89</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E18" s="2" t="s">
         <v>90</v>
@@ -1327,13 +1285,13 @@
         <v>94</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>69</v>
+        <v>64</v>
       </c>
       <c r="E19" s="2" t="s">
         <v>95</v>
       </c>
       <c r="F19" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G19" s="2" t="s">
         <v>96</v>
@@ -1350,13 +1308,13 @@
         <v>99</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="E20" s="2" t="s">
         <v>100</v>
       </c>
       <c r="F20" s="1">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="G20" s="2" t="s">
         <v>101</v>
@@ -1373,13 +1331,13 @@
         <v>104</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>105</v>
+        <v>64</v>
       </c>
       <c r="E21" s="2" t="s">
         <v>105</v>
       </c>
       <c r="F21" s="1">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="G21" s="2" t="s">
         <v>106</v>
@@ -1396,10 +1354,10 @@
         <v>109</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>69</v>
+        <v>110</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F22" s="1">
         <v>2</v>
@@ -1413,108 +1371,104 @@
         <v>112</v>
       </c>
       <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C23" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="C23" s="2" t="s">
+      <c r="D23" s="2" t="s">
         <v>114</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>115</v>
       </c>
       <c r="E23" s="2" t="s">
         <v>112</v>
       </c>
       <c r="F23" s="1">
-        <v>2</v>
-      </c>
-      <c r="G23" s="2" t="s">
-        <v>116</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G23" s="1"/>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
+        <v>115</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="C24" s="2" t="s">
         <v>117</v>
       </c>
-      <c r="B24" s="2" t="s">
+      <c r="D24" s="2" t="s">
         <v>118</v>
       </c>
-      <c r="C24" s="2" t="s">
+      <c r="E24" s="2" t="s">
         <v>119</v>
       </c>
-      <c r="D24" s="2" t="s">
+      <c r="F24" s="1">
+        <v>1</v>
+      </c>
+      <c r="G24" s="2" t="s">
         <v>120</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="F24" s="1">
-        <v>1</v>
-      </c>
-      <c r="G24" s="2" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
+        <v>121</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="B25" s="2" t="s">
+      <c r="C25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>125</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="1">
+        <v>2</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>126</v>
-      </c>
-      <c r="F25" s="1">
-        <v>1</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>127</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="D26" s="2" t="s">
-        <v>131</v>
-      </c>
       <c r="E26" s="2" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="F26" s="1">
-        <v>2</v>
-      </c>
-      <c r="G26" s="2" t="s">
-        <v>133</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="D27" s="2" t="s">
         <v>134</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
@@ -1523,71 +1477,25 @@
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C28" s="2" t="s">
         <v>137</v>
       </c>
-      <c r="B28" s="2" t="s">
+      <c r="D28" s="2" t="s">
         <v>138</v>
       </c>
-      <c r="C28" s="2" t="s">
+      <c r="E28" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="F28" s="1">
+        <v>1</v>
+      </c>
+      <c r="G28" s="2" t="s">
         <v>139</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>140</v>
-      </c>
-      <c r="E28" s="2" t="s">
-        <v>141</v>
-      </c>
-      <c r="F28" s="1">
-        <v>1</v>
-      </c>
-      <c r="G28" s="2" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A29" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>144</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>145</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="E29" s="2" t="s">
-        <v>147</v>
-      </c>
-      <c r="F29" s="1">
-        <v>1</v>
-      </c>
-      <c r="G29" s="2" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A30" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="B30" s="2" t="s">
-        <v>150</v>
-      </c>
-      <c r="C30" s="2" t="s">
-        <v>151</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>152</v>
-      </c>
-      <c r="E30" s="2" t="s">
-        <v>149</v>
-      </c>
-      <c r="F30" s="1">
-        <v>1</v>
-      </c>
-      <c r="G30" s="2" t="s">
-        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/Project Outputs for UWB_board/BOM/Bill of Materials-UWB_board.xlsx
+++ b/Project Outputs for UWB_board/BOM/Bill of Materials-UWB_board.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29530"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Files\Projects\UWB_board\Project Outputs for UWB_board\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{552B0229-0FC3-4AC9-A7E6-A7E9EB41A5B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{1D80ACFE-9C1A-4081-BA86-9D1073B701EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14145" yWindow="3735" windowWidth="30075" windowHeight="15345" xr2:uid="{75293BC7-681D-47B2-8889-6EED14AAD5F6}"/>
+    <workbookView xWindow="14145" yWindow="3735" windowWidth="30075" windowHeight="15345" xr2:uid="{FD56DA7D-F0BE-4DA9-A8CC-5965BCCDDF92}"/>
   </bookViews>
   <sheets>
     <sheet name="Bill of Materials-UWB_board" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="140">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="140">
   <si>
     <t>Comment</t>
   </si>
@@ -98,7 +98,7 @@
     <t>1uF 50V X5R ±10% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
   </si>
   <si>
-    <t>C6, C13, C14, C15, C16, C21</t>
+    <t>C6, C13, C14, C21</t>
   </si>
   <si>
     <t>CL10A105KB8NNNC</t>
@@ -107,19 +107,19 @@
     <t>C15849</t>
   </si>
   <si>
-    <t>18pF</t>
-  </si>
-  <si>
-    <t>18pF 50V C0G ±5% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
+    <t>10pF</t>
+  </si>
+  <si>
+    <t>10pF 50V C0G ±5% 0603 Multilayer Ceramic Capacitors MLCC - SMD/SMT ROHS</t>
   </si>
   <si>
     <t>C8, C9</t>
   </si>
   <si>
-    <t>CL10C180JB8NNNC</t>
-  </si>
-  <si>
-    <t>C1647</t>
+    <t>CL10C100JB8NNNC</t>
+  </si>
+  <si>
+    <t>C1634</t>
   </si>
   <si>
     <t>2.2uF</t>
@@ -347,19 +347,19 @@
     <t>None</t>
   </si>
   <si>
-    <t>4.7k</t>
-  </si>
-  <si>
-    <t>4.7kΩ -55℃~+155℃ 100mW 75V Thick Film Resistor ±1% ±100ppm/℃ 0603 Chip Resistor - Surface Mount ROHS</t>
-  </si>
-  <si>
-    <t>R18, R19</t>
-  </si>
-  <si>
-    <t>0603WAF4701T5E</t>
-  </si>
-  <si>
-    <t>C23162</t>
+    <t>10k</t>
+  </si>
+  <si>
+    <t>10kΩ -55℃~+155℃ 100mW 75V Thick Film Resistor ±1% ±100ppm/℃ 0603 Chip Resistor - Surface Mount ROHS</t>
+  </si>
+  <si>
+    <t>R16, R17</t>
+  </si>
+  <si>
+    <t>0603WAF1002T5E</t>
+  </si>
+  <si>
+    <t>C25804</t>
   </si>
   <si>
     <t>TS-1088-AR02016</t>
@@ -407,19 +407,31 @@
     <t>LDO</t>
   </si>
   <si>
-    <t>-40℃~+85℃@(Ta) 1 1uA 200mA 3.3V 6V Fixed Over Current Protection Positive SOT-23-3L Voltage Regulators - Linear, Low Drop Out (LDO) Regulators ROHS</t>
-  </si>
-  <si>
-    <t>U3, U4</t>
-  </si>
-  <si>
-    <t>SOT95P280X120-3N</t>
-  </si>
-  <si>
-    <t>XC6206P332MR-G</t>
-  </si>
-  <si>
-    <t>C5446</t>
+    <t>U3</t>
+  </si>
+  <si>
+    <t>SOT95P280X145-5N</t>
+  </si>
+  <si>
+    <t>TPS7A20</t>
+  </si>
+  <si>
+    <t>C2862740</t>
+  </si>
+  <si>
+    <t>LSM6DSVETR</t>
+  </si>
+  <si>
+    <t>6-axis IMU with embedded sensor fusion, I3C, OIS/EIS for smart applications</t>
+  </si>
+  <si>
+    <t>U4</t>
+  </si>
+  <si>
+    <t>LGA14-L_2p59x3P1x0P5_STM</t>
+  </si>
+  <si>
+    <t>C41785564</t>
   </si>
   <si>
     <t>DWM3000</t>
@@ -432,18 +444,6 @@
   </si>
   <si>
     <t>DWM1000</t>
-  </si>
-  <si>
-    <t>LSM6DSVTR</t>
-  </si>
-  <si>
-    <t>6-axis IMU with embedded sensor fusion, I3C, OIS/EIS for smart applications</t>
-  </si>
-  <si>
-    <t>U8</t>
-  </si>
-  <si>
-    <t>LGA14-L_2p59x3P1x0P5_STM</t>
   </si>
   <si>
     <t>Q13FC13500004</t>
@@ -855,7 +855,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9DB06B4E-843D-4616-81CF-A56F0BD355F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E5E82647-44EE-4D56-95A6-492C701DC16B}">
   <dimension ref="A1:G28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
@@ -952,7 +952,7 @@
         <v>20</v>
       </c>
       <c r="F4" s="1">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="G4" s="2" t="s">
         <v>21</v>
@@ -1415,44 +1415,46 @@
         <v>121</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2" t="s">
         <v>122</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="D25" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="2" t="s">
         <v>124</v>
       </c>
-      <c r="E25" s="2" t="s">
+      <c r="F25" s="1">
+        <v>1</v>
+      </c>
+      <c r="G25" s="2" t="s">
         <v>125</v>
-      </c>
-      <c r="F25" s="1">
-        <v>2</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" s="2" t="s">
         <v>127</v>
       </c>
-      <c r="B26" s="2" t="s">
+      <c r="C26" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="D26" s="2" t="s">
         <v>129</v>
       </c>
-      <c r="D26" s="2" t="s">
+      <c r="E26" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F26" s="1">
+        <v>1</v>
+      </c>
+      <c r="G26" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="E26" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="F26" s="1">
-        <v>1</v>
-      </c>
-      <c r="G26" s="1"/>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
@@ -1468,7 +1470,7 @@
         <v>134</v>
       </c>
       <c r="E27" s="2" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="F27" s="1">
         <v>1</v>
